--- a/data/trans_media/Q15_2-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q15_2-Habitat-trans_media.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,47</t>
+          <t>1,0; 1,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,32</t>
+          <t>1,0; 1,33</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,77</t>
+          <t>1,0; 1,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,27</t>
+          <t>1,0; 1,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,58</t>
+          <t>1,07; 1,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,16</t>
+          <t>1,0; 1,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,57</t>
+          <t>1,13; 1,58</t>
         </is>
       </c>
     </row>
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,34</t>
+          <t>1,04; 1,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,33</t>
+          <t>1,0; 1,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,2</t>
+          <t>1,01; 1,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,18</t>
+          <t>1,02; 1,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,13</t>
+          <t>1,0; 1,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,71</t>
+          <t>1,05; 1,72</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,63</t>
+          <t>1,08; 1,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,17</t>
+          <t>1,0; 1,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,69</t>
+          <t>1,09; 1,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,09</t>
+          <t>1,0; 1,11</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,33</t>
+          <t>1,04; 1,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,44</t>
+          <t>1,06; 1,4</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,31</t>
+          <t>1,03; 1,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,25</t>
+          <t>1,0; 1,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,16</t>
+          <t>1,0; 1,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,69</t>
+          <t>1,02; 1,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,13</t>
+          <t>1,0; 1,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,42</t>
+          <t>1,03; 1,37</t>
         </is>
       </c>
     </row>
@@ -1434,22 +1434,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,13</t>
+          <t>1,02; 1,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,6</t>
+          <t>1,08; 1,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,05</t>
+          <t>1,0; 1,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,14</t>
+          <t>1,03; 1,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,33</t>
+          <t>1,11; 1,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,02</t>
+          <t>1,0; 1,03</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,37</t>
+          <t>1,12; 1,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q15_2-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q15_2-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,75</t>
+          <t>1,0; 2,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,55</t>
+          <t>1,0; 1,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,23</t>
+          <t>1,0; 1,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,2</t>
+          <t>1,0; 1,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,32</t>
+          <t>1,04; 1,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,17</t>
+          <t>1,02; 1,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,14</t>
+          <t>1,0; 1,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,19</t>
+          <t>1,0; 1,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,11</t>
+          <t>1,0; 1,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,22</t>
+          <t>1,0; 1,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,21</t>
+          <t>1,02; 1,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1444,12 +1444,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,06</t>
+          <t>1,0; 1,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,15</t>
+          <t>1,02; 1,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
